--- a/biology/Médecine/Classe_ATC_M09/Classe_ATC_M09.xlsx
+++ b/biology/Médecine/Classe_ATC_M09/Classe_ATC_M09.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classe ATC M09, dénommée « Autres médicaments des désordres musculo-squelettiques », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux[1]. La classe ATC vétérinaire correspondante dans la classification ATCvet est QM09[2]. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique M de la classification, intitulé « Système musculo-squelettique ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classe ATC M09, dénommée « Autres médicaments des désordres musculo-squelettiques », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux. La classe ATC vétérinaire correspondante dans la classification ATCvet est QM09. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique M de la classification, intitulé « Système musculo-squelettique ».
 </t>
         </is>
       </c>
@@ -513,16 +525,89 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">M09AA Quinines et dérivés
-M09AA01 Hydroquinine
-M09AA72 Quinine, associations avec psycholeptiques
-M09AB Enzymes
-M09AB01 Chymopapaïne (en)
+          <t>M09AA Quinines et dérivés</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>M09AA01 Hydroquinine
+M09AA72 Quinine, associations avec psycholeptiques</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Classe_ATC_M09</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_M09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>M09A Autres médicaments des désordres musculo-squelettiques</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>M09AB Enzymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>M09AB01 Chymopapaïne (en)
 M09AB02 Collagénase clostridium histolyticum (en)
 M09AB03 Bromélaïnes
-M09AB52 Trypsine, associations
-M09AX Autres médicaments des désordres musculo-squelettiques
-M09AX01 Acide hyaluronique
+M09AB52 Trypsine, associations</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Classe_ATC_M09</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_M09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>M09A Autres médicaments des désordres musculo-squelettiques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>M09AX Autres médicaments des désordres musculo-squelettiques</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">M09AX01 Acide hyaluronique
 M09AX02 Chondrocytes autologues
 M09AX03 Ataluren
 M09AX04 Drisapersen
